--- a/ProcessedData/export_to_r/colm_XWD_export_eledata_co2.xlsx
+++ b/ProcessedData/export_to_r/colm_XWD_export_eledata_co2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/Ecuador2021/ProcessedData/export_to_r/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243D606D-248B-034A-B2F8-B0FA49720490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07798DF-FEB8-7A4D-84D6-E720DCA08508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6800" yWindow="3160" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1137,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView tabSelected="1" topLeftCell="O64" workbookViewId="0">
+      <selection activeCell="V90" sqref="V90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5785,12 +5785,12 @@
         <v>10</v>
       </c>
       <c r="V89">
-        <f>R90-GT88</f>
-        <v>3923.1132809999999</v>
+        <f>R90-R88</f>
+        <v>-0.60400400000025911</v>
       </c>
       <c r="W89">
-        <f t="shared" si="9"/>
-        <v>445.96908910732196</v>
+        <f>ABS(V89)/S89</f>
+        <v>6.8661569117023535E-2</v>
       </c>
       <c r="X89">
         <f>R89-R87</f>
